--- a/data/Petorca.xlsx
+++ b/data/Petorca.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria CHEC Embalse Las Palmas S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F6" t="n">

--- a/data/Petorca.xlsx
+++ b/data/Petorca.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Papudo</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MVC SOLAR 46 SpA</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11000</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151456655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificaciones Embalse de Regadío Las Palmas</t>
+          <t>Parque Fotovoltaico Papudo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria CHEC Embalse Las Palmas S.A</t>
+          <t>MVC SOLAR 46 SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1810</v>
+        <v>11000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/07/2020</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146851638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151456655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Planta Solar Fotovoltaica Santa Julia con Sistema de Almacenamiento de Energía</t>
+          <t>Modificaciones Embalse de Regadío Las Palmas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sonnedix Chile Energy Storage SpA</t>
+          <t>Sociedad Concesionaria CHEC Embalse Las Palmas S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>53000</v>
+        <v>1810</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/05/2019</t>
+          <t>20/07/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143262852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146851638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Solar Esfena</t>
+          <t>Modificación Planta Solar Fotovoltaica Santa Julia con Sistema de Almacenamiento de Energía</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CVE Proyecto Nueve SpA</t>
+          <t>Sonnedix Chile Energy Storage SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8000</v>
+        <v>53000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>24/05/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143262852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EMBALSE DE REGADÍO LAS PALMAS</t>
+          <t>Parque Solar Esfena</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>CVE Proyecto Nueve SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>75000</v>
+        <v>8000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130314223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143020037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Embalse de Regadío Las Palmas</t>
+          <t>EMBALSE DE REGADÍO LAS PALMAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130258815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130314223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,40 +712,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Embalse de Regadío Las Palmas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5000</v>
+        <v>75000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130258815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROYECTO PROCESAMIENTO DE MINERALES Y SUBPRODUCTOS SULFURADOS PLANTA DE FLOTACIÓN SEMIN CHILE LTDA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,16 +1058,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CIA MINERA SEMIN CHILE LTDA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128909383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>PROYECTO PROCESAMIENTO DE MINERALES Y SUBPRODUCTOS SULFURADOS PLANTA DE FLOTACIÓN SEMIN CHILE LTDA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>CIA MINERA SEMIN CHILE LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128909383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto Planta Los Comunes</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Minera SINOTECH Chile (Sur) Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4200</v>
+        <v>2475</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24/01/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7678357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Proyecto Planta Los Comunes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Minera SINOTECH Chile (Sur) Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/01/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7678357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4050</v>
+        <v>1750</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Petorca (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Petorca</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>28/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4148689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Plan Regulador Comunal de Petorca (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Ilustre Municipalidad de Petorca</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>28/10/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4148689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>22</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PERALTAMIENTO MURO EMBALSE DE RELAVES LA TERRAZA 2 (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Compañía Minera Don Alberto - Bronce de Petorca</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3234838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>PERALTAMIENTO MURO EMBALSE DE RELAVES LA TERRAZA 2 (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía Minera Don Alberto - Bronce de Petorca</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>09/10/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3234838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>429</v>
+        <v>3408</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Modificación al Plan Regulador Metropolitano de Valparaíso Satélite Petorca - Cabildo (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>19/12/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Variante Quelén - Línea 2x220 kV (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MLP Transmisión S.A.</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>11897</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=522234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Línea de Transmisión By Pass Quelén (e-seia)</t>
+          <t>Variante Quelén - Línea 2x220 kV (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Minera Los Pelambres</t>
+          <t>MLP Transmisión S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>11560</v>
+        <v>11897</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14/07/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=397532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=522234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Redes de Aguas Servidas de Chincolco</t>
+          <t>Línea de Transmisión By Pass Quelén (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Minera Los Pelambres</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>890</v>
+        <v>11560</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>14/07/2004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=397532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Instalación Servicio de Alcantarillado de Hierro Viejo</t>
+          <t>Planta de Tratamiento y Redes de Aguas Servidas de Chincolco</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Petorca</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1010</v>
+        <v>890</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17/06/1999</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Minerales Oxidados de Cobre</t>
+          <t>Instalación Servicio de Alcantarillado de Hierro Viejo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Compañía Minera Bassi Ltda.</t>
+          <t>I. Municipalidad de Petorca</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1200</v>
+        <v>1010</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07/05/1998</t>
+          <t>17/06/1999</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Pedegua Comuna de Petorca</t>
+          <t>Planta Procesadora de Minerales Oxidados de Cobre</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Petorca</t>
+          <t>Compañía Minera Bassi Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03/02/1998</t>
+          <t>07/05/1998</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,43 +3832,91 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>Sistema de Alcantarillado Sector Pedegua Comuna de Petorca</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Petorca</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>03/02/1998</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=971&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Petorca</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>Línea de Transmisión Eléctrica San Isidro - Los Piuquenes</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>MLP Transmisión S.A.</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="F74" t="n">
         <v>24800</v>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>03/10/1997</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=20&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Petorca</t>
         </is>

--- a/data/Petorca.xlsx
+++ b/data/Petorca.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
